--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -120,193 +120,199 @@
     <t>Count</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MÉDICO CIRUJANO</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CIRUJANO DENTISTA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ENFERMERAS(OS)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ENFERMERAS(OS) MATRONAS(ES)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MATRONAS(ES)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TECNÓLOGOS MÉDICOS</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>PSICÓLOGOS/AS</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>KINESIÓLOGOS/AS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>FARMACÉUTICOS Y QUÍMICO-FARMACÉUTICOS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>BIOQUÍMICOS</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>NUTRICIONISTAS</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>FONOAUDIÓLOGOS/AS</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>TERAPEUTAS OCUPACIONALES</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>AUXILIARES PARAMÉDICOS DE ALIMENTACIÓN</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>A.P. DE RADIOLOGÍA, RADIOTERAPIA, LAB</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>AUXILIARES PARAMÉDICOS DE ODONTOLOGÍA</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>AUXILIARES PARAMÉDICOS DE FARMACIA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>AUXILIARES DE ENFERMERÍA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TÉCNICO EN NIVEL SUPERIOR EN SALUD</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>TÉCNICOS EN SALUD</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TÉCNICOS NIVEL MEDIO EN SALUD</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>LABORATORISTAS DENTALES</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>PODÓLOGOS/AS</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ÓPTICOS/AS</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>CONTACTÓLOGOS/AS</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>HOMEÓPATAS</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ACUPUNTURISTAS</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>NATURÓPATAS</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>COSMETÓLOGOS/AS</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MÉDICO CIRUJANO</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CIRUJANO DENTISTA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ENFERMERAS(OS)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ENFERMERAS(OS) MATRONAS(ES)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MATRONAS(ES)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TECNÓLOGOS MÉDICOS</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>PSICÓLOGOS/AS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>KINESIÓLOGOS/AS</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>FARMACÉUTICOS Y QUÍMICO-FARMACÉUTICOS</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>BIOQUÍMICOS</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>NUTRICIONISTAS</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FONOAUDIÓLOGOS/AS</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>TERAPEUTAS OCUPACIONALES</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AUXILIARES PARAMÉDICOS DE ALIMENTACIÓN</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>A.P. DE RADIOLOGÍA, RADIOTERAPIA, LAB</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>AUXILIARES PARAMÉDICOS DE ODONTOLOGÍA</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>AUXILIARES PARAMÉDICOS DE FARMACIA</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>AUXILIARES DE ENFERMERÍA</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>TÉCNICO EN NIVEL SUPERIOR EN SALUD</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>TÉCNICOS EN SALUD</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>TÉCNICOS NIVEL MEDIO EN SALUD</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>LABORATORISTAS DENTALES</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>PODÓLOGOS/AS</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ÓPTICOS/AS</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>CONTACTÓLOGOS/AS</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>HOMEÓPATAS</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>ACUPUNTURISTAS</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>NATURÓPATAS</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>COSMETÓLOGOS/AS</t>
+    <t>MÉDICO GENERAL</t>
   </si>
   <si>
     <t>99</t>
@@ -625,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1005,6 +1011,18 @@
       </c>
       <c r="D31" s="2"/>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSTituloProfesional.xlsx
+++ b/CodeSystem-CSTituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
